--- a/Data/EC/NIT-9010217006.xlsx
+++ b/Data/EC/NIT-9010217006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC42CD7C-E606-429B-90B4-C6D9317437ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FF577E-2184-4FA3-A553-7C0D74E416BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B821DB80-FB90-4AA7-BFC4-2633959A1136}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{052A6E22-A98D-46D6-9BD3-03C4E2896681}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,136 +65,136 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45582159</t>
+  </si>
+  <si>
+    <t>MAIDA CECILIA PIÑERES MARQUEZ</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
     <t>45645018</t>
   </si>
   <si>
     <t>MILENA JOHANA ANILLO CARO</t>
   </si>
   <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>45582159</t>
-  </si>
-  <si>
-    <t>MAIDA CECILIA PIÑERES MARQUEZ</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
   </si>
   <si>
     <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -238,7 +238,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C6C9FA-BC75-6A6B-E5AD-39FE2D39E781}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5237F0-3765-FE72-1FB4-A0A1E2654E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,28 +959,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3530EBE9-19B8-4D25-BD9A-54D382F1C343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D0A39-AD44-4A80-957A-3F86FA88BA9A}">
   <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -993,7 +993,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1004,7 +1004,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1015,7 +1015,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1026,8 +1026,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
@@ -1042,8 +1042,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1058,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
@@ -1074,8 +1074,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1140,24 +1140,24 @@
         <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>29509</v>
@@ -1169,18 +1169,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>29509</v>
@@ -1192,7 +1192,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1209,27 +1209,27 @@
         <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1238,67 +1238,67 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1307,21 +1307,21 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1330,21 +1330,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1353,21 +1353,21 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1376,21 +1376,21 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1399,21 +1399,21 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1422,21 +1422,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1445,21 +1445,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1468,21 +1468,21 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1491,21 +1491,21 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1514,21 +1514,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1537,18 +1537,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1560,18 +1560,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1583,18 +1583,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1606,18 +1606,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1629,18 +1629,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1652,18 +1652,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1675,18 +1675,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1698,18 +1698,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1721,18 +1721,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1744,18 +1744,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1767,18 +1767,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1790,18 +1790,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1813,21 +1813,21 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1836,21 +1836,21 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1859,21 +1859,21 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1882,21 +1882,21 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1905,21 +1905,21 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1928,21 +1928,21 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1951,21 +1951,21 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -1974,21 +1974,21 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -1997,21 +1997,21 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2020,21 +2020,21 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2043,21 +2043,21 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2066,21 +2066,21 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2089,21 +2089,21 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2112,21 +2112,21 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F59" s="24">
-        <v>26041</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="24">
         <v>781242</v>
@@ -2135,7 +2135,7 @@
       <c r="I59" s="25"/>
       <c r="J59" s="26"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="32" t="s">
         <v>62</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="32" t="s">
         <v>61</v>
       </c>

--- a/Data/EC/NIT-9010217006.xlsx
+++ b/Data/EC/NIT-9010217006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FF577E-2184-4FA3-A553-7C0D74E416BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48209D5B-2887-4B43-939C-E003FD1DFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{052A6E22-A98D-46D6-9BD3-03C4E2896681}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{90446B35-6178-4D17-B186-1393F2935023}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,130 +71,130 @@
     <t>MAIDA CECILIA PIÑERES MARQUEZ</t>
   </si>
   <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>45645018</t>
+  </si>
+  <si>
+    <t>MILENA JOHANA ANILLO CARO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
     <t>1710</t>
   </si>
   <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>45645018</t>
-  </si>
-  <si>
-    <t>MILENA JOHANA ANILLO CARO</t>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
   </si>
   <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -238,7 +238,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,7 +293,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -306,9 +308,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -508,23 +508,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +552,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5237F0-3765-FE72-1FB4-A0A1E2654E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796A313F-B534-C0ED-2CE9-017B475C3501}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,28 +959,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D0A39-AD44-4A80-957A-3F86FA88BA9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86980BD-24AB-4870-96FD-0FA0FCD6D3D3}">
   <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -993,7 +993,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1004,7 +1004,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1015,7 +1015,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1026,8 +1026,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
@@ -1042,8 +1042,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1058,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
@@ -1074,8 +1074,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1146,30 +1146,30 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>29509</v>
@@ -1192,15 +1192,15 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1209,50 +1209,50 @@
         <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="18">
-        <v>26041</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1261,44 +1261,44 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1307,21 +1307,21 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1330,21 +1330,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1353,21 +1353,21 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1376,21 +1376,21 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1399,21 +1399,21 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1422,21 +1422,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1445,21 +1445,21 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1468,21 +1468,21 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1491,21 +1491,21 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1514,21 +1514,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1537,18 +1537,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1560,18 +1560,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1583,18 +1583,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1606,18 +1606,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1629,18 +1629,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1652,18 +1652,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1675,18 +1675,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1698,18 +1698,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1721,18 +1721,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1744,18 +1744,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1767,18 +1767,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1790,18 +1790,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1813,21 +1813,21 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1836,21 +1836,21 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1859,21 +1859,21 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1882,21 +1882,21 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1905,21 +1905,21 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1928,21 +1928,21 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F51" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1951,21 +1951,21 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -1974,21 +1974,21 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -1997,21 +1997,21 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F54" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2020,21 +2020,21 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2043,21 +2043,21 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2066,21 +2066,21 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F57" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2089,21 +2089,21 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2112,21 +2112,21 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F59" s="24">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G59" s="24">
         <v>781242</v>
@@ -2135,7 +2135,7 @@
       <c r="I59" s="25"/>
       <c r="J59" s="26"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="32" t="s">
         <v>62</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="32" t="s">
         <v>61</v>
       </c>
